--- a/docs/ST4/ST4_08.08.24_output.xlsx
+++ b/docs/ST4/ST4_08.08.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K102"/>
+  <dimension ref="A1:N102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,52 +437,67 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
         </is>
       </c>
     </row>
@@ -490,859 +505,1019 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731444832.3705914</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731444832.4618</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731444832.3705914.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731444832.4618.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>282.77</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>283.11</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.3400000000000318</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731444832.5655413</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731444832.6153803</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731444832.5655413.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731444832.6153803.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>282.81</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>283.08</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0.2699999999999818</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731444832.8058734</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731444834.5552764</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731444832.8058734.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731444834.5552764.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>282.6</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>283</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>0.3999999999999773</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731444838.1689508</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731444838.393484</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731444838.1689508.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731444838.393484.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>282.72</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>283.19</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>0.4699999999999704</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731444838.636648</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731444838.77951</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731444838.636648.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731444838.77951.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>282.57</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>282.97</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>0.4000000000000341</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731444838.8727255</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>./test_images/SBERP1731444838.8727255.png</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+          <t>./test_images/SBERP1731444838.8727255.png</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>282.64</v>
       </c>
-      <c r="J8" t="n">
-        <v>282.64</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
+      <c r="L8" t="n">
+        <v>282.5</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-0.1399999999999864</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731444839.684993</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731444839.770763</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731444839.684993.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731444839.770763.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>282.77</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>283.11</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.3400000000000318</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731444839.8545396</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731444839.9069595</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/SBER1731444839.8545396.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/SBER1731444839.9069595.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>282.81</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>283.08</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>0.2699999999999818</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731444840.0597591</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731444841.5485952</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/SBER1731444840.0597591.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/SBER1731444841.5485952.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>282.6</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>283</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>0.3999999999999773</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731444844.5203385</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731444844.705433</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/SBER1731444844.5203385.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/SBER1731444844.705433.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>282.72</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>283.19</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>0.4699999999999704</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731444844.8886209</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731444844.9705856</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/SBER1731444844.8886209.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/SBER1731444844.9705856.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>282.57</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>282.97</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>0.4000000000000341</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731444845.053644</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731444845.7089422</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/SBER1731444845.053644.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/SBER1731444845.7089422.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>282.64</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>283.61</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>0.9700000000000273</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.34</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731444847.509045</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731444849.1553292</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/SBER1731444847.509045.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/SBER1731444849.1553292.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>284.49</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>284.48</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>-0.009999999999990905</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731444852.8094058</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731444853.6664789</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/SBER1731444852.8094058.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/SBER1731444853.6664789.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>283.26</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>283.35</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>0.09000000000003183</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731444853.981409</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731444854.6385198</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/SBER1731444853.981409.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/SBER1731444854.6385198.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>282.74</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>283.05</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>0.3100000000000023</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731444858.3159497</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731444858.434678</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/SBER1731444858.3159497.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/SBER1731444858.434678.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>282.89</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>283.28</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>0.3899999999999864</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731444858.5246747</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>./test_images/SBER1731444858.5246747.png</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+          <t>./test_images/SBER1731444858.5246747.png</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>282.85</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>282.85</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1350,236 +1525,281 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731444860.1821752</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731444860.487284</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731444860.1821752.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731444860.487284.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>130.67</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>130.47</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>0.1999999999999886</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731444862.894782</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731444863.9680414</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731444862.894782.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731444863.9680414.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>130.7</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>130.4</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>0.2999999999999829</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731444866.3933957</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731444866.9544163</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731444866.3933957.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731444866.9544163.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>129.86</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>129.61</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>-0.25</v>
+      </c>
+      <c r="N22" t="n">
+        <v>-0.19</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731444867.777762</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731444868.1659107</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731444867.777762.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731444868.1659107.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>128.9</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>129.3</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>0.4000000000000057</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.31</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731444873.161658</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>./test_images/GAZP1731444873.161658.png</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+          <t>./test_images/GAZP1731444873.161658.png</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>129.13</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>129.13</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1587,285 +1807,339 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731444874.9330785</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731444875.3556106</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731444874.9330785.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731444875.3556106.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>6523</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>6523.5</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>-0.5</v>
+      </c>
+      <c r="N25" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731444877.1343248</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731444878.3503833</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731444877.1343248.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731444878.3503833.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>6532</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>6529.5</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>2.5</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731444881.0447218</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731444881.1406894</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731444881.0447218.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731444881.1406894.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>6494</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>6500.5</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>6.5</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731444881.3412633</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731444882.8299263</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731444881.3412633.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731444882.8299263.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>6488.5</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>6464</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>-24.5</v>
+      </c>
+      <c r="N28" t="n">
+        <v>-0.38</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731444886.1103857</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731444886.4525793</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731444886.1103857.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731444886.4525793.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>6465.5</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>6473</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>7.5</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731444886.6439805</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>./test_images/LKOH1731444886.6439805.png</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+          <t>./test_images/LKOH1731444886.6439805.png</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>6462.5</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>6462.5</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1873,481 +2147,571 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731444888.3226464</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731444889.0210567</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731444888.3226464.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731444889.0210567.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>511.1</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>511.05</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>0.05000000000001137</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731444889.7569277</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731444891.3641276</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731444889.7569277.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731444891.3641276.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>512.45</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>513</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>-0.5499999999999545</v>
+      </c>
+      <c r="N32" t="n">
+        <v>-0.11</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731444899.4262917</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731444899.8365633</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731444899.4262917.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731444899.8365633.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>510.25</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>510.15</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>-0.1000000000000227</v>
+      </c>
+      <c r="N33" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731444902.0320911</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731444902.9540353</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731444902.0320911.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731444902.9540353.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>228.86</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>229.48</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>0.6199999999999761</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.27</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731444909.3026626</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731444909.7441788</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731444909.3026626.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731444909.7441788.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>228.17</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>228.37</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>0.2000000000000171</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731444913.781738</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>./test_images/MOEX1731444913.781738.png</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+          <t>./test_images/MOEX1731444913.781738.png</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>228.45</v>
       </c>
-      <c r="J36" t="n">
-        <v>228.45</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0</v>
+      <c r="L36" t="n">
+        <v>228.64</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.1899999999999977</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731444915.8320882</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731444917.5732112</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731444915.8320882.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731444917.5732112.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>1018.4</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>1027.2</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>-8.800000000000068</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-0.86</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731444917.5881717</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731444920.3820086</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731444917.5881717.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731444920.3820086.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>1027.2</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>1022.6</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>-4.600000000000023</v>
+      </c>
+      <c r="N38" t="n">
+        <v>-0.45</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731444921.4608254</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731444921.7388039</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731444921.4608254.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731444921.7388039.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>1026</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>1024.8</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>1.200000000000045</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731444928.998378</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731444929.1720757</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/CNY1731444928.998378.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/CNY1731444929.1720757.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>11.87</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>11.87</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2355,481 +2719,571 @@
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731444929.9351964</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731444930.2481272</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/CNY1731444929.9351964.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/CNY1731444930.2481272.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>11.899</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>11.906</v>
       </c>
-      <c r="K41" t="n">
-        <v>-0.006999999999999673</v>
+      <c r="M41" t="n">
+        <v>-0.00700000000000145</v>
+      </c>
+      <c r="N41" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731444930.5041494</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731444931.6339757</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/CNY1731444930.5041494.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/CNY1731444931.6339757.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>11.928</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>11.941</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>-0.0129999999999999</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-0.11</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731444932.9606922</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731444934.1307442</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/CNY1731444932.9606922.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/CNY1731444934.1307442.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>11.964</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>11.969</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>-0.004999999999999005</v>
+      </c>
+      <c r="N43" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731444941.4166784</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731444941.4724011</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/CNY1731444941.4166784.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/CNY1731444941.4724011.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>11.937</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>11.939</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>0.002000000000000668</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731444942.4385712</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731444942.4953575</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/CNY1731444942.4385712.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/CNY1731444942.4953575.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>11.972</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>11.968</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>0.003999999999999559</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731444945.54453</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731444945.9180396</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731444945.54453.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731444945.9180396.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>124.68</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>124.72</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>0.03999999999999204</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731444948.3869617</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731444948.976543</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731444948.3869617.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731444948.976543.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>124.62</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>124.52</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>-0.1000000000000085</v>
+      </c>
+      <c r="N47" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731444949.2749958</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731444950.8902035</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731444949.2749958.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731444950.8902035.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>124.28</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>124.08</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>-0.2000000000000028</v>
+      </c>
+      <c r="N48" t="n">
+        <v>-0.16</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731444951.1564872</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731444952.3500516</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731444951.1564872.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731444952.3500516.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>123.9</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>123.66</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>-0.2400000000000091</v>
+      </c>
+      <c r="N49" t="n">
+        <v>-0.19</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731444956.5115442</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>./test_images/GMKN1731444956.5115442.png</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr">
         <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+          <t>./test_images/GMKN1731444956.5115442.png</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>123.5</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>123.5</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2837,2221 +3291,2635 @@
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731444961.342695</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731444961.7192128</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731444961.342695.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731444961.7192128.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>162.44</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>162.2</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>0.2400000000000091</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731444962.0362883</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731444962.3332894</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731444962.0362883.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731444962.3332894.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>163.06</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>162.64</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>0.4200000000000159</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.26</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731444965.442368</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731444966.0082173</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731444965.442368.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731444966.0082173.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>160.24</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>160.7</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>0.4599999999999795</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.29</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731444966.2604115</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731444966.6356285</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731444966.2604115.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731444966.6356285.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>160.04</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>160.36</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>0.3200000000000216</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731444971.350027</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>./test_images/NLMK1731444971.350027.png</t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr">
         <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+          <t>./test_images/NLMK1731444971.350027.png</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>160.72</v>
       </c>
-      <c r="J55" t="n">
-        <v>160.72</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0</v>
+      <c r="L55" t="n">
+        <v>160.76</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.03999999999999204</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731444972.4248126</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731444972.8850033</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731444972.4248126.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731444972.8850033.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>49.325</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>49.405</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>0.07999999999999829</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731444973.3184798</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731444973.7859008</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731444973.3184798.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731444973.7859008.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>49.72</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>49.62</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>0.1000000000000014</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731444975.2025843</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731444975.7420788</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731444975.2025843.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731444975.7420788.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>49.675</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>49.605</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>0.07000000000000028</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731444979.0399163</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1731444980.253014</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731444979.0399163.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731444980.253014.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>49.335</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>49.2</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>-0.134999999999998</v>
+      </c>
+      <c r="N59" t="n">
+        <v>-0.27</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731444980.468589</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1731444981.4195154</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731444980.468589.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731444981.4195154.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>49.065</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>49.2</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>0.1350000000000051</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.28</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731444986.730273</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1731444987.6567998</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731444986.730273.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731444987.6567998.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>1389</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>1391.8</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>-2.799999999999955</v>
+      </c>
+      <c r="N61" t="n">
+        <v>-0.2</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731444987.671787</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1731444988.37355</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731444987.671787.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731444988.37355.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>1391.8</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>1399.8</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>8</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.5700000000000001</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731444988.628893</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1731444988.902845</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731444988.628893.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731444988.902845.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>1397.6</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>1402.8</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>5.200000000000045</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.37</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731444988.9187744</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>1731444989.3934417</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731444988.9187744.png</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731444989.3934417.png</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>1402.8</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>1402</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>0.7999999999999545</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731444989.4084306</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1731444990.0473235</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731444989.4084306.png</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731444990.0473235.png</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>1402</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>1405</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>3</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731444992.8916032</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>1731444993.479115</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731444992.8916032.png</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731444993.479115.png</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>1387</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>1388.8</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>1.799999999999955</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731444993.9451928</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>1731444994.8172088</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731444993.9451928.png</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731444994.8172088.png</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>1385.4</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>1386.4</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>1</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1731445004.5426764</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>1731445004.6057274</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731445004.5426764.png</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731445004.6057274.png</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>60.98</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>61.04</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>0.06000000000000227</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1731445005.0997949</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>1731445005.3825855</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731445005.0997949.png</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731445005.3825855.png</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>60.77</v>
       </c>
-      <c r="J69" t="n">
+      <c r="L69" t="n">
         <v>61.09</v>
       </c>
-      <c r="K69" t="n">
+      <c r="M69" t="n">
         <v>0.3200000000000003</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0.53</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1731445007.5880702</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>1731445009.3954475</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731445007.5880702.png</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731445009.3954475.png</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>60.63</v>
       </c>
-      <c r="J70" t="n">
+      <c r="L70" t="n">
         <v>61.04</v>
       </c>
-      <c r="K70" t="n">
+      <c r="M70" t="n">
         <v>0.4099999999999966</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0.6799999999999999</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1731445019.1184707</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>1731445022.4930325</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731445019.1184707.png</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731445022.4930325.png</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
         <v>98.20999999999999</v>
       </c>
-      <c r="J71" t="n">
+      <c r="L71" t="n">
         <v>97.75</v>
       </c>
-      <c r="K71" t="n">
+      <c r="M71" t="n">
         <v>-0.4599999999999937</v>
+      </c>
+      <c r="N71" t="n">
+        <v>-0.47</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>1731445023.1007872</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>1731445024.0652008</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731445023.1007872.png</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731445024.0652008.png</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
         <v>97.45999999999999</v>
       </c>
-      <c r="J72" t="n">
+      <c r="L72" t="n">
         <v>97.97</v>
       </c>
-      <c r="K72" t="n">
+      <c r="M72" t="n">
         <v>0.5100000000000051</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0.52</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>1731445028.3776588</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>1731445028.4659083</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>./test_images/SELG1731445028.3776588.png</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>./test_images/SELG1731445028.4659083.png</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
         <v>56.48</v>
       </c>
-      <c r="J73" t="n">
+      <c r="L73" t="n">
         <v>56.26</v>
       </c>
-      <c r="K73" t="n">
+      <c r="M73" t="n">
         <v>0.2199999999999989</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0.39</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>1731445028.9448729</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>1731445029.2260938</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>./test_images/SELG1731445028.9448729.png</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>./test_images/SELG1731445029.2260938.png</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
         <v>56</v>
       </c>
-      <c r="J74" t="n">
+      <c r="L74" t="n">
         <v>56.05</v>
       </c>
-      <c r="K74" t="n">
+      <c r="M74" t="n">
         <v>0.04999999999999716</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>1731445032.5476425</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>1731445033.2937706</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>./test_images/SELG1731445032.5476425.png</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>./test_images/SELG1731445033.2937706.png</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
         <v>55.95</v>
       </c>
-      <c r="J75" t="n">
+      <c r="L75" t="n">
         <v>55.94</v>
       </c>
-      <c r="K75" t="n">
+      <c r="M75" t="n">
         <v>-0.01000000000000512</v>
+      </c>
+      <c r="N75" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>1731445034.170875</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>1731445034.8591883</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>./test_images/SELG1731445034.170875.png</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>./test_images/SELG1731445034.8591883.png</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
         <v>55.75</v>
       </c>
-      <c r="J76" t="n">
+      <c r="L76" t="n">
         <v>55.86</v>
       </c>
-      <c r="K76" t="n">
+      <c r="M76" t="n">
         <v>0.1099999999999994</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="n">
+        <v>75</v>
+      </c>
+      <c r="D77" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>1731445034.8751183</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>1731445035.1201093</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>./test_images/SELG1731445034.8751183.png</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>./test_images/SELG1731445035.1201093.png</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
         <v>55.86</v>
       </c>
-      <c r="J77" t="n">
+      <c r="L77" t="n">
         <v>55.64</v>
       </c>
-      <c r="K77" t="n">
+      <c r="M77" t="n">
         <v>0.2199999999999989</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0.39</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" t="n">
+        <v>76</v>
+      </c>
+      <c r="D78" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>1731445035.1360867</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>1731445035.6700833</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>./test_images/SELG1731445035.1360867.png</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>./test_images/SELG1731445035.6700833.png</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
         <v>55.64</v>
       </c>
-      <c r="J78" t="n">
+      <c r="L78" t="n">
         <v>55.77</v>
       </c>
-      <c r="K78" t="n">
+      <c r="M78" t="n">
         <v>0.1300000000000026</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" t="n">
+        <v>77</v>
+      </c>
+      <c r="D79" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>1731445035.6850429</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>1731445037.2255988</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>./test_images/SELG1731445035.6850429.png</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>./test_images/SELG1731445037.2255988.png</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
         <v>55.77</v>
       </c>
-      <c r="J79" t="n">
+      <c r="L79" t="n">
         <v>55.85</v>
       </c>
-      <c r="K79" t="n">
+      <c r="M79" t="n">
         <v>-0.07999999999999829</v>
+      </c>
+      <c r="N79" t="n">
+        <v>-0.14</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" t="n">
+        <v>78</v>
+      </c>
+      <c r="C80" t="n">
+        <v>78</v>
+      </c>
+      <c r="D80" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>1731445039.6196833</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>1731445039.7865994</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731445039.6196833.png</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731445039.7865994.png</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
         <v>149.56</v>
       </c>
-      <c r="J80" t="n">
+      <c r="L80" t="n">
         <v>148.72</v>
       </c>
-      <c r="K80" t="n">
+      <c r="M80" t="n">
         <v>0.8400000000000034</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0.5599999999999999</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81" t="n">
+        <v>79</v>
+      </c>
+      <c r="C81" t="n">
+        <v>79</v>
+      </c>
+      <c r="D81" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>1731445040.585925</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>1731445041.840824</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731445040.585925.png</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731445041.840824.png</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I81" t="n">
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
         <v>149.24</v>
       </c>
-      <c r="J81" t="n">
+      <c r="L81" t="n">
         <v>151.9</v>
       </c>
-      <c r="K81" t="n">
+      <c r="M81" t="n">
         <v>2.659999999999997</v>
+      </c>
+      <c r="N81" t="n">
+        <v>1.78</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82" t="n">
+        <v>80</v>
+      </c>
+      <c r="C82" t="n">
+        <v>80</v>
+      </c>
+      <c r="D82" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>1731445043.261608</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>1731445045.059175</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731445043.261608.png</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731445045.059175.png</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I82" t="n">
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
         <v>153.98</v>
       </c>
-      <c r="J82" t="n">
+      <c r="L82" t="n">
         <v>154.68</v>
       </c>
-      <c r="K82" t="n">
+      <c r="M82" t="n">
         <v>0.7000000000000171</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0.45</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83" t="n">
+        <v>81</v>
+      </c>
+      <c r="C83" t="n">
+        <v>81</v>
+      </c>
+      <c r="D83" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>1731445052.573228</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>1731445053.1295571</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731445052.573228.png</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731445053.1295571.png</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
         <v>152.74</v>
       </c>
-      <c r="J83" t="n">
+      <c r="L83" t="n">
         <v>153.32</v>
       </c>
-      <c r="K83" t="n">
+      <c r="M83" t="n">
         <v>0.5799999999999841</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0.38</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B84" t="n">
+        <v>82</v>
+      </c>
+      <c r="C84" t="n">
+        <v>82</v>
+      </c>
+      <c r="D84" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>1731445055.0127313</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>1731445055.3359413</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731445055.0127313.png</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731445055.3359413.png</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="I84" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I84" t="n">
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
         <v>20.519</v>
       </c>
-      <c r="J84" t="n">
+      <c r="L84" t="n">
         <v>20.48</v>
       </c>
-      <c r="K84" t="n">
+      <c r="M84" t="n">
         <v>0.03899999999999793</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B85" t="n">
+        <v>83</v>
+      </c>
+      <c r="C85" t="n">
+        <v>83</v>
+      </c>
+      <c r="D85" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>1731445060.4470592</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>1731445062.8215196</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731445060.4470592.png</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731445062.8215196.png</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
         <v>20.351</v>
       </c>
-      <c r="J85" t="n">
+      <c r="L85" t="n">
         <v>20.281</v>
       </c>
-      <c r="K85" t="n">
+      <c r="M85" t="n">
         <v>-0.07000000000000028</v>
+      </c>
+      <c r="N85" t="n">
+        <v>-0.34</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B86" t="n">
+        <v>84</v>
+      </c>
+      <c r="C86" t="n">
+        <v>84</v>
+      </c>
+      <c r="D86" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>1731445066.086344</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr"/>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>./test_images/AFKS1731445066.086344.png</t>
         </is>
       </c>
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr">
         <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I86" t="n">
+          <t>./test_images/AFKS1731445066.086344.png</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
         <v>20.261</v>
       </c>
-      <c r="J86" t="n">
-        <v>20.261</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0</v>
+      <c r="L86" t="n">
+        <v>20.161</v>
+      </c>
+      <c r="M86" t="n">
+        <v>-0.09999999999999787</v>
+      </c>
+      <c r="N86" t="n">
+        <v>-0.49</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B87" t="n">
+        <v>85</v>
+      </c>
+      <c r="C87" t="n">
+        <v>85</v>
+      </c>
+      <c r="D87" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>1731445068.906116</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>1731445070.846285</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731445068.906116.png</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731445070.846285.png</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I87" t="n">
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
         <v>678.55</v>
       </c>
-      <c r="J87" t="n">
+      <c r="L87" t="n">
         <v>679.75</v>
       </c>
-      <c r="K87" t="n">
+      <c r="M87" t="n">
         <v>1.200000000000045</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B88" t="n">
+        <v>86</v>
+      </c>
+      <c r="C88" t="n">
+        <v>86</v>
+      </c>
+      <c r="D88" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>1731445071.0914295</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>1731445071.484593</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731445071.0914295.png</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="H88" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731445071.484593.png</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
+      <c r="I88" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I88" t="n">
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
         <v>680.7</v>
       </c>
-      <c r="J88" t="n">
+      <c r="L88" t="n">
         <v>681.5</v>
       </c>
-      <c r="K88" t="n">
+      <c r="M88" t="n">
         <v>-0.7999999999999545</v>
+      </c>
+      <c r="N88" t="n">
+        <v>-0.12</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B89" t="n">
+        <v>87</v>
+      </c>
+      <c r="C89" t="n">
+        <v>87</v>
+      </c>
+      <c r="D89" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>1731445074.541707</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>1731445075.5676498</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731445074.541707.png</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="H89" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731445075.5676498.png</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I89" t="n">
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
         <v>676.8</v>
       </c>
-      <c r="J89" t="n">
+      <c r="L89" t="n">
         <v>676.7</v>
       </c>
-      <c r="K89" t="n">
+      <c r="M89" t="n">
         <v>-0.09999999999990905</v>
+      </c>
+      <c r="N89" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B90" t="n">
+        <v>88</v>
+      </c>
+      <c r="C90" t="n">
+        <v>88</v>
+      </c>
+      <c r="D90" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>1731445079.4024532</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr"/>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>./test_images/SIBN1731445079.4024532.png</t>
         </is>
       </c>
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr">
         <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I90" t="n">
+          <t>./test_images/SIBN1731445079.4024532.png</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
         <v>676.3</v>
       </c>
-      <c r="J90" t="n">
-        <v>676.3</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0</v>
+      <c r="L90" t="n">
+        <v>675.7</v>
+      </c>
+      <c r="M90" t="n">
+        <v>-0.5999999999999091</v>
+      </c>
+      <c r="N90" t="n">
+        <v>-0.09</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B91" t="n">
+        <v>89</v>
+      </c>
+      <c r="C91" t="n">
+        <v>89</v>
+      </c>
+      <c r="D91" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>1731445080.4231424</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>1731445080.760982</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731445080.4231424.png</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="H91" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731445080.760982.png</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I91" t="n">
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
         <v>155.49</v>
       </c>
-      <c r="J91" t="n">
+      <c r="L91" t="n">
         <v>156.37</v>
       </c>
-      <c r="K91" t="n">
+      <c r="M91" t="n">
         <v>0.8799999999999955</v>
+      </c>
+      <c r="N91" t="n">
+        <v>0.5700000000000001</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B92" t="n">
+        <v>90</v>
+      </c>
+      <c r="C92" t="n">
+        <v>90</v>
+      </c>
+      <c r="D92" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>1731445081.2606673</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>1731445081.806817</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731445081.2606673.png</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="H92" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731445081.806817.png</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I92" t="n">
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
         <v>154.9</v>
       </c>
-      <c r="J92" t="n">
+      <c r="L92" t="n">
         <v>155.9</v>
       </c>
-      <c r="K92" t="n">
+      <c r="M92" t="n">
         <v>1</v>
+      </c>
+      <c r="N92" t="n">
+        <v>0.65</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B93" t="n">
+        <v>91</v>
+      </c>
+      <c r="C93" t="n">
+        <v>91</v>
+      </c>
+      <c r="D93" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>1731445085.3926184</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>1731445085.5313025</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731445085.3926184.png</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="H93" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731445085.5313025.png</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
+      <c r="I93" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I93" t="n">
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
         <v>157.83</v>
       </c>
-      <c r="J93" t="n">
+      <c r="L93" t="n">
         <v>157.6</v>
       </c>
-      <c r="K93" t="n">
+      <c r="M93" t="n">
         <v>0.2300000000000182</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B94" t="n">
+        <v>92</v>
+      </c>
+      <c r="C94" t="n">
+        <v>92</v>
+      </c>
+      <c r="D94" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>1731445088.852448</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>1731445089.2309527</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731445088.852448.png</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="H94" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731445089.2309527.png</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I94" t="n">
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
         <v>155.11</v>
       </c>
-      <c r="J94" t="n">
+      <c r="L94" t="n">
         <v>155.37</v>
       </c>
-      <c r="K94" t="n">
+      <c r="M94" t="n">
         <v>0.2599999999999909</v>
+      </c>
+      <c r="N94" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B95" t="n">
+        <v>93</v>
+      </c>
+      <c r="C95" t="n">
+        <v>93</v>
+      </c>
+      <c r="D95" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>1731445090.1753478</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>1731445091.0387352</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731445090.1753478.png</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="H95" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731445091.0387352.png</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I95" t="n">
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
         <v>154.61</v>
       </c>
-      <c r="J95" t="n">
+      <c r="L95" t="n">
         <v>154.6</v>
       </c>
-      <c r="K95" t="n">
+      <c r="M95" t="n">
         <v>-0.01000000000001933</v>
+      </c>
+      <c r="N95" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B96" t="n">
+        <v>94</v>
+      </c>
+      <c r="C96" t="n">
+        <v>94</v>
+      </c>
+      <c r="D96" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>1731445094.7218423</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr"/>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>./test_images/MTLR1731445094.7218423.png</t>
         </is>
       </c>
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr">
         <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I96" t="n">
+          <t>./test_images/MTLR1731445094.7218423.png</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
         <v>154.54</v>
       </c>
-      <c r="J96" t="n">
+      <c r="L96" t="n">
         <v>154.54</v>
       </c>
-      <c r="K96" t="n">
+      <c r="M96" t="n">
+        <v>0</v>
+      </c>
+      <c r="N96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5059,294 +5927,348 @@
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B97" t="n">
+        <v>95</v>
+      </c>
+      <c r="C97" t="n">
+        <v>95</v>
+      </c>
+      <c r="D97" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>1731445095.378079</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>1731445096.2131069</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>./test_images/FEES1731445095.378079.png</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="H97" t="inlineStr">
         <is>
           <t>./test_images/FEES1731445096.2131069.png</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I97" t="n">
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
         <v>0.09730000000000001</v>
       </c>
-      <c r="J97" t="n">
+      <c r="L97" t="n">
         <v>0.09748000000000001</v>
       </c>
-      <c r="K97" t="n">
+      <c r="M97" t="n">
         <v>0.0001799999999999996</v>
+      </c>
+      <c r="N97" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="B98" t="n">
+        <v>96</v>
+      </c>
+      <c r="C98" t="n">
+        <v>96</v>
+      </c>
+      <c r="D98" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>1731445096.3011894</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>1731445096.5573225</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>./test_images/FEES1731445096.3011894.png</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="H98" t="inlineStr">
         <is>
           <t>./test_images/FEES1731445096.5573225.png</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr">
+      <c r="I98" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I98" t="n">
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
         <v>0.098</v>
       </c>
-      <c r="J98" t="n">
+      <c r="L98" t="n">
         <v>0.09768</v>
       </c>
-      <c r="K98" t="n">
+      <c r="M98" t="n">
         <v>0.0003200000000000008</v>
+      </c>
+      <c r="N98" t="n">
+        <v>0.33</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="B99" t="n">
+        <v>97</v>
+      </c>
+      <c r="C99" t="n">
+        <v>97</v>
+      </c>
+      <c r="D99" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>1731445097.88263</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>1731445099.274403</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>./test_images/FEES1731445097.88263.png</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="H99" t="inlineStr">
         <is>
           <t>./test_images/FEES1731445099.274403.png</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr">
+      <c r="I99" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I99" t="n">
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
         <v>0.09796000000000001</v>
       </c>
-      <c r="J99" t="n">
+      <c r="L99" t="n">
         <v>0.09820000000000001</v>
       </c>
-      <c r="K99" t="n">
+      <c r="M99" t="n">
         <v>-0.0002400000000000041</v>
+      </c>
+      <c r="N99" t="n">
+        <v>-0.24</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="B100" t="n">
+        <v>98</v>
+      </c>
+      <c r="C100" t="n">
+        <v>98</v>
+      </c>
+      <c r="D100" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>1731445099.2903326</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="F100" t="inlineStr">
         <is>
           <t>1731445100.6801531</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="G100" t="inlineStr">
         <is>
           <t>./test_images/FEES1731445099.2903326.png</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
+      <c r="H100" t="inlineStr">
         <is>
           <t>./test_images/FEES1731445100.6801531.png</t>
         </is>
       </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I100" t="n">
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
         <v>0.09820000000000001</v>
       </c>
-      <c r="J100" t="n">
+      <c r="L100" t="n">
         <v>0.09768</v>
       </c>
-      <c r="K100" t="n">
+      <c r="M100" t="n">
         <v>-0.0005200000000000066</v>
+      </c>
+      <c r="N100" t="n">
+        <v>-0.53</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="B101" t="inlineStr">
+      <c r="B101" t="n">
+        <v>99</v>
+      </c>
+      <c r="C101" t="n">
+        <v>99</v>
+      </c>
+      <c r="D101" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>1731445102.3534477</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="F101" t="inlineStr">
         <is>
           <t>1731445103.1172845</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="G101" t="inlineStr">
         <is>
           <t>./test_images/FEES1731445102.3534477.png</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="H101" t="inlineStr">
         <is>
           <t>./test_images/FEES1731445103.1172845.png</t>
         </is>
       </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I101" t="n">
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
         <v>0.09728000000000001</v>
       </c>
-      <c r="J101" t="n">
+      <c r="L101" t="n">
         <v>0.09730000000000001</v>
       </c>
-      <c r="K101" t="n">
+      <c r="M101" t="n">
         <v>2.000000000000612e-05</v>
+      </c>
+      <c r="N101" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="B102" t="inlineStr">
+      <c r="B102" t="n">
+        <v>100</v>
+      </c>
+      <c r="C102" t="n">
+        <v>100</v>
+      </c>
+      <c r="D102" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
+      <c r="E102" t="inlineStr">
         <is>
           <t>1731445110.2977562</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
+      <c r="F102" t="inlineStr">
         <is>
           <t>1731445111.0023167</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
+      <c r="G102" t="inlineStr">
         <is>
           <t>./test_images/MXI1731445110.2977562.png</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
+      <c r="H102" t="inlineStr">
         <is>
           <t>./test_images/MXI1731445111.0023167.png</t>
         </is>
       </c>
-      <c r="G102" t="inlineStr">
+      <c r="I102" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I102" t="n">
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
         <v>2948</v>
       </c>
-      <c r="J102" t="n">
+      <c r="L102" t="n">
         <v>2949.7</v>
       </c>
-      <c r="K102" t="n">
+      <c r="M102" t="n">
         <v>-1.699999999999818</v>
+      </c>
+      <c r="N102" t="n">
+        <v>-0.06</v>
       </c>
     </row>
   </sheetData>
@@ -5360,7 +6282,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5389,6 +6311,16 @@
           <t>part</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -5405,6 +6337,12 @@
       <c r="D2" t="n">
         <v>0.3300000000000047</v>
       </c>
+      <c r="E2" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -5421,6 +6359,12 @@
       <c r="D3" t="n">
         <v>2.428571428571428</v>
       </c>
+      <c r="E3" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -5437,6 +6381,12 @@
       <c r="D4" t="n">
         <v>0.0914285714285705</v>
       </c>
+      <c r="E4" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -5453,6 +6403,12 @@
       <c r="D5" t="n">
         <v>0.3933333333333309</v>
       </c>
+      <c r="E5" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -5461,13 +6417,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.01899999999999835</v>
+        <v>-0.01900000000000013</v>
       </c>
       <c r="C6" t="n">
         <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.003166666666666392</v>
+        <v>-0.003166666666666688</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-0.16</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="7">
@@ -5485,6 +6447,12 @@
       <c r="D7" t="n">
         <v>-1.416666666666667</v>
       </c>
+      <c r="E7" t="n">
+        <v>-0.13</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-0.02</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -5493,13 +6461,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.879999999999995</v>
+        <v>1.740000000000009</v>
       </c>
       <c r="C8" t="n">
         <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3133333333333326</v>
+        <v>0.2900000000000015</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="9">
@@ -5517,6 +6491,12 @@
       <c r="D9" t="n">
         <v>-4.800000000000082e-05</v>
       </c>
+      <c r="E9" t="n">
+        <v>-0.24</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-0.05</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -5533,6 +6513,12 @@
       <c r="D10" t="n">
         <v>0.1299999999999955</v>
       </c>
+      <c r="E10" t="n">
+        <v>0.4999999999999999</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -5549,6 +6535,12 @@
       <c r="D11" t="n">
         <v>-0.1000000000000057</v>
       </c>
+      <c r="E11" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.08</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -5565,6 +6557,12 @@
       <c r="D12" t="n">
         <v>0.05000000000000142</v>
       </c>
+      <c r="E12" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -5573,13 +6571,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.440000000000026</v>
+        <v>1.480000000000018</v>
       </c>
       <c r="C13" t="n">
         <v>5</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2880000000000053</v>
+        <v>0.2960000000000036</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="14">
@@ -5589,13 +6593,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3000000000001819</v>
+        <v>-0.2999999999997272</v>
       </c>
       <c r="C14" t="n">
         <v>4</v>
       </c>
       <c r="D14" t="n">
-        <v>0.07500000000004547</v>
+        <v>-0.07499999999993179</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="15">
@@ -5613,6 +6623,12 @@
       <c r="D15" t="n">
         <v>1.195</v>
       </c>
+      <c r="E15" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.79</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -5629,6 +6645,12 @@
       <c r="D16" t="n">
         <v>-0.1999999999999886</v>
       </c>
+      <c r="E16" t="n">
+        <v>-0.12</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-0.04</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -5645,6 +6667,12 @@
       <c r="D17" t="n">
         <v>-4.066666666666682</v>
       </c>
+      <c r="E17" t="n">
+        <v>-1.19</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-0.4</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -5661,6 +6689,12 @@
       <c r="D18" t="n">
         <v>0.263333333333333</v>
       </c>
+      <c r="E18" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.44</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -5669,13 +6703,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.8199999999999932</v>
+        <v>1.009999999999991</v>
       </c>
       <c r="C19" t="n">
         <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>0.273333333333331</v>
+        <v>0.3366666666666636</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="20">
@@ -5685,13 +6725,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.03100000000000236</v>
+        <v>-0.1310000000000002</v>
       </c>
       <c r="C20" t="n">
         <v>3</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.01033333333333412</v>
+        <v>-0.04366666666666674</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-0.6399999999999999</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-0.21</v>
       </c>
     </row>
     <row r="21">
@@ -5709,6 +6755,12 @@
       <c r="D21" t="n">
         <v>0.02500000000000568</v>
       </c>
+      <c r="E21" t="n">
+        <v>0.04999999999999999</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -5725,6 +6777,12 @@
       <c r="D22" t="n">
         <v>-1.699999999999818</v>
       </c>
+      <c r="E22" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-0.06</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -5739,6 +6797,10 @@
         <v>0</v>
       </c>
       <c r="D23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
